--- a/2020/4/Study Backlog.xlsx
+++ b/2020/4/Study Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hall-of-FAME-and-SHAME\2020\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBCDCD5-6C3B-475C-9C18-7AF0C95AAC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E7E0D8-C4D1-4A20-90D3-7495494C467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0662FA44-EBB1-4007-864B-C521F6303B5A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Course</t>
   </si>
@@ -154,18 +154,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +485,7 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,423 +510,429 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
